--- a/Data/testData/sample1.xlsx
+++ b/Data/testData/sample1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\hypothesis-testing\Data\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F61DDFC-6A90-4E2F-8C97-5C90B9F786C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1144624E-8590-466C-B4A6-2F7741F7EE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
   <si>
     <t>Anderson</t>
   </si>
@@ -787,6 +787,9 @@
   </si>
   <si>
     <t>Zavala</t>
+  </si>
+  <si>
+    <t>County</t>
   </si>
 </sst>
 </file>
@@ -826,7 +829,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1109,9 +1112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P292"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1139,6 +1140,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>254</v>
+      </c>
       <c r="B1" s="3">
         <v>1</v>
       </c>

--- a/Data/testData/sample1.xlsx
+++ b/Data/testData/sample1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\hypothesis-testing\Data\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1144624E-8590-466C-B4A6-2F7741F7EE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A32D02A-DBA3-4994-B849-6E43FA71C0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data/testData/sample1.xlsx
+++ b/Data/testData/sample1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\hypothesis-testing\Data\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A32D02A-DBA3-4994-B849-6E43FA71C0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB498D1-3845-4FCC-B0E7-38912C9BF3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="269">
   <si>
     <t>Anderson</t>
   </si>
@@ -790,6 +790,48 @@
   </si>
   <si>
     <t>County</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -1112,7 +1154,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P292"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1143,47 +1187,47 @@
       <c r="A1" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="3">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3">
-        <v>1</v>
-      </c>
-      <c r="G1" s="3">
-        <v>2</v>
-      </c>
-      <c r="H1" s="3">
-        <v>1</v>
-      </c>
-      <c r="I1" s="3">
-        <v>2</v>
-      </c>
-      <c r="J1" s="3">
-        <v>1</v>
-      </c>
-      <c r="K1" s="3">
-        <v>2</v>
-      </c>
-      <c r="L1" s="3">
-        <v>1</v>
-      </c>
-      <c r="M1" s="3">
-        <v>2</v>
-      </c>
-      <c r="N1" s="3">
-        <v>1</v>
-      </c>
-      <c r="O1" s="3">
-        <v>2</v>
+      <c r="B1" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
